--- a/NondVahi2017.xlsx
+++ b/NondVahi2017.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SA292082\Documents\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="36" windowWidth="22980" windowHeight="9552"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10995"/>
   </bookViews>
   <sheets>
     <sheet name="Dainandin Nond" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Monthly Distribution" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -470,6 +475,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -477,7 +485,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-IN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -493,7 +501,6 @@
       <c:rotX val="30"/>
       <c:rotY val="0"/>
       <c:rAngAx val="0"/>
-      <c:perspective val="30"/>
     </c:view3D>
     <c:floor>
       <c:thickness val="0"/>
@@ -512,6 +519,13 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -519,6 +533,9 @@
             <c:showPercent val="1"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
           </c:dLbls>
           <c:val>
             <c:numRef>
@@ -576,7 +593,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-IN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -592,7 +609,6 @@
       <c:rotX val="30"/>
       <c:rotY val="0"/>
       <c:rAngAx val="0"/>
-      <c:perspective val="30"/>
     </c:view3D>
     <c:floor>
       <c:thickness val="0"/>
@@ -621,6 +637,13 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -628,6 +651,9 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -710,22 +736,22 @@
                   <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>98</c:v>
+                  <c:v>159</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>115</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>169</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>212</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>193</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>130</c:v>
@@ -747,7 +773,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -766,7 +791,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-IN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -789,6 +814,28 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>'Monthly Distribution'!$C$2:$C$16</c:f>
@@ -870,22 +917,22 @@
                   <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>98</c:v>
+                  <c:v>159</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>115</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>169</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>212</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>193</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>130</c:v>
@@ -904,22 +951,22 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="184130176"/>
-        <c:axId val="184136064"/>
+        <c:axId val="226269392"/>
+        <c:axId val="226321760"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="184130176"/>
+        <c:axId val="226269392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="184136064"/>
+        <c:crossAx val="226321760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -927,7 +974,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="184136064"/>
+        <c:axId val="226321760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -938,7 +985,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="184130176"/>
+        <c:crossAx val="226269392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1195,7 +1242,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1230,7 +1277,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1441,36 +1488,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z59"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K30" sqref="K30"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="N25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AA48" sqref="AA48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.88671875" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="19" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -1544,7 +1593,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>42705</v>
       </c>
@@ -1616,7 +1665,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>42706</v>
       </c>
@@ -1688,7 +1737,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>42707</v>
       </c>
@@ -1760,7 +1809,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>42708</v>
       </c>
@@ -1832,7 +1881,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>42709</v>
       </c>
@@ -1904,7 +1953,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>42710</v>
       </c>
@@ -1976,7 +2025,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>42711</v>
       </c>
@@ -2048,7 +2097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>42712</v>
       </c>
@@ -2120,7 +2169,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>42713</v>
       </c>
@@ -2192,7 +2241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>42714</v>
       </c>
@@ -2264,7 +2313,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>42715</v>
       </c>
@@ -2336,7 +2385,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>42716</v>
       </c>
@@ -2404,7 +2453,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>42717</v>
       </c>
@@ -2474,7 +2523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>42718</v>
       </c>
@@ -2540,7 +2589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>42719</v>
       </c>
@@ -2590,7 +2639,7 @@
       <c r="W16" s="17"/>
       <c r="X16" s="12"/>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>42720</v>
       </c>
@@ -2640,7 +2689,7 @@
       <c r="W17" s="18"/>
       <c r="X17" s="14"/>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>42721</v>
       </c>
@@ -2690,7 +2739,7 @@
       <c r="W18" s="19"/>
       <c r="X18" s="16"/>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>0</v>
       </c>
@@ -2776,7 +2825,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>1</v>
       </c>
@@ -2862,7 +2911,7 @@
         <v>7.2142857142857144</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="C21" s="22" t="s">
         <v>5</v>
       </c>
@@ -2906,8 +2955,8 @@
         <v>229</v>
       </c>
     </row>
-    <row r="23" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="24" spans="1:26" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F24" s="38" t="s">
         <v>4</v>
       </c>
@@ -2930,7 +2979,7 @@
         <v>973000</v>
       </c>
     </row>
-    <row r="25" spans="1:26" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F25" s="38" t="s">
         <v>1</v>
       </c>
@@ -2940,7 +2989,7 @@
         <v>6629.4117647058829</v>
       </c>
     </row>
-    <row r="30" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>2</v>
       </c>
@@ -3020,7 +3069,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>42887</v>
       </c>
@@ -3048,41 +3097,59 @@
       <c r="I31" s="2">
         <v>42948</v>
       </c>
-      <c r="J31" s="1"/>
+      <c r="J31" s="1">
+        <v>1</v>
+      </c>
       <c r="K31" s="2">
         <v>42965</v>
       </c>
-      <c r="L31" s="1"/>
+      <c r="L31" s="1">
+        <v>1</v>
+      </c>
       <c r="M31" s="2">
         <v>42979</v>
       </c>
-      <c r="N31" s="1"/>
+      <c r="N31" s="1">
+        <v>3</v>
+      </c>
       <c r="O31" s="2">
         <v>42996</v>
       </c>
-      <c r="P31" s="1"/>
+      <c r="P31" s="1">
+        <v>2</v>
+      </c>
       <c r="Q31" s="2">
         <v>43009</v>
       </c>
-      <c r="R31" s="1"/>
+      <c r="R31" s="1">
+        <v>30</v>
+      </c>
       <c r="S31" s="2">
         <v>43026</v>
       </c>
-      <c r="T31" s="1"/>
+      <c r="T31" s="1">
+        <v>1</v>
+      </c>
       <c r="U31" s="2">
         <v>43040</v>
       </c>
-      <c r="V31" s="1"/>
+      <c r="V31" s="1">
+        <v>6</v>
+      </c>
       <c r="W31" s="2">
         <v>43057</v>
       </c>
-      <c r="X31" s="1"/>
+      <c r="X31" s="1">
+        <v>0</v>
+      </c>
       <c r="Y31" s="2">
         <v>43070</v>
       </c>
-      <c r="Z31" s="1"/>
-    </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="Z31" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>42888</v>
       </c>
@@ -3110,41 +3177,57 @@
       <c r="I32" s="2">
         <v>42949</v>
       </c>
-      <c r="J32" s="1"/>
+      <c r="J32" s="1">
+        <v>1</v>
+      </c>
       <c r="K32" s="2">
         <v>42966</v>
       </c>
-      <c r="L32" s="1"/>
+      <c r="L32" s="1">
+        <v>1</v>
+      </c>
       <c r="M32" s="2">
         <v>42980</v>
       </c>
-      <c r="N32" s="1"/>
+      <c r="N32" s="1">
+        <v>15</v>
+      </c>
       <c r="O32" s="2">
         <v>42997</v>
       </c>
-      <c r="P32" s="1"/>
+      <c r="P32" s="1">
+        <v>1</v>
+      </c>
       <c r="Q32" s="2">
         <v>43010</v>
       </c>
-      <c r="R32" s="1"/>
+      <c r="R32" s="1">
+        <v>8</v>
+      </c>
       <c r="S32" s="2">
         <v>43027</v>
       </c>
-      <c r="T32" s="1"/>
+      <c r="T32" s="1">
+        <v>1</v>
+      </c>
       <c r="U32" s="2">
         <v>43041</v>
       </c>
-      <c r="V32" s="1"/>
+      <c r="V32" s="1">
+        <v>2</v>
+      </c>
       <c r="W32" s="2">
         <v>43058</v>
       </c>
-      <c r="X32" s="1"/>
+      <c r="X32" s="1">
+        <v>22</v>
+      </c>
       <c r="Y32" s="2">
         <v>43071</v>
       </c>
       <c r="Z32" s="1"/>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>42889</v>
       </c>
@@ -3172,41 +3255,57 @@
       <c r="I33" s="2">
         <v>42950</v>
       </c>
-      <c r="J33" s="1"/>
+      <c r="J33" s="1">
+        <v>1</v>
+      </c>
       <c r="K33" s="2">
         <v>42967</v>
       </c>
-      <c r="L33" s="1"/>
+      <c r="L33" s="1">
+        <v>1</v>
+      </c>
       <c r="M33" s="2">
         <v>42981</v>
       </c>
-      <c r="N33" s="1"/>
+      <c r="N33" s="1">
+        <v>10</v>
+      </c>
       <c r="O33" s="2">
         <v>42998</v>
       </c>
-      <c r="P33" s="1"/>
+      <c r="P33" s="1">
+        <v>3</v>
+      </c>
       <c r="Q33" s="2">
         <v>43011</v>
       </c>
-      <c r="R33" s="1"/>
+      <c r="R33" s="1">
+        <v>10</v>
+      </c>
       <c r="S33" s="2">
         <v>43028</v>
       </c>
-      <c r="T33" s="1"/>
+      <c r="T33" s="1">
+        <v>43</v>
+      </c>
       <c r="U33" s="2">
         <v>43042</v>
       </c>
-      <c r="V33" s="1"/>
+      <c r="V33" s="1">
+        <v>0</v>
+      </c>
       <c r="W33" s="2">
         <v>43059</v>
       </c>
-      <c r="X33" s="1"/>
+      <c r="X33" s="1">
+        <v>1</v>
+      </c>
       <c r="Y33" s="7">
         <v>43072</v>
       </c>
       <c r="Z33" s="8"/>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>42890</v>
       </c>
@@ -3228,43 +3327,61 @@
       <c r="G34" s="2">
         <v>42937</v>
       </c>
-      <c r="H34" s="1"/>
+      <c r="H34" s="1">
+        <v>2</v>
+      </c>
       <c r="I34" s="2">
         <v>42951</v>
       </c>
-      <c r="J34" s="1"/>
+      <c r="J34" s="1">
+        <v>2</v>
+      </c>
       <c r="K34" s="2">
         <v>42968</v>
       </c>
-      <c r="L34" s="1"/>
+      <c r="L34" s="1">
+        <v>3</v>
+      </c>
       <c r="M34" s="2">
         <v>42982</v>
       </c>
-      <c r="N34" s="1"/>
+      <c r="N34" s="1">
+        <v>2</v>
+      </c>
       <c r="O34" s="2">
         <v>42999</v>
       </c>
-      <c r="P34" s="1"/>
+      <c r="P34" s="1">
+        <v>1</v>
+      </c>
       <c r="Q34" s="2">
         <v>43012</v>
       </c>
-      <c r="R34" s="1"/>
+      <c r="R34" s="1">
+        <v>0</v>
+      </c>
       <c r="S34" s="2">
         <v>43029</v>
       </c>
-      <c r="T34" s="1"/>
+      <c r="T34" s="1">
+        <v>37</v>
+      </c>
       <c r="U34" s="2">
         <v>43043</v>
       </c>
-      <c r="V34" s="1"/>
+      <c r="V34" s="1">
+        <v>11</v>
+      </c>
       <c r="W34" s="2">
         <v>43060</v>
       </c>
-      <c r="X34" s="6"/>
+      <c r="X34" s="6">
+        <v>1</v>
+      </c>
       <c r="Y34" s="11"/>
       <c r="Z34" s="12"/>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>42891</v>
       </c>
@@ -3286,43 +3403,61 @@
       <c r="G35" s="2">
         <v>42938</v>
       </c>
-      <c r="H35" s="1"/>
+      <c r="H35" s="1">
+        <v>5</v>
+      </c>
       <c r="I35" s="2">
         <v>42952</v>
       </c>
-      <c r="J35" s="1"/>
+      <c r="J35" s="1">
+        <v>6</v>
+      </c>
       <c r="K35" s="2">
         <v>42969</v>
       </c>
-      <c r="L35" s="1"/>
+      <c r="L35" s="1">
+        <v>3</v>
+      </c>
       <c r="M35" s="2">
         <v>42983</v>
       </c>
-      <c r="N35" s="1"/>
+      <c r="N35" s="1">
+        <v>2</v>
+      </c>
       <c r="O35" s="2">
         <v>43000</v>
       </c>
-      <c r="P35" s="1"/>
+      <c r="P35" s="1">
+        <v>1</v>
+      </c>
       <c r="Q35" s="2">
         <v>43013</v>
       </c>
-      <c r="R35" s="1"/>
+      <c r="R35" s="1">
+        <v>3</v>
+      </c>
       <c r="S35" s="2">
         <v>43030</v>
       </c>
-      <c r="T35" s="1"/>
+      <c r="T35" s="1">
+        <v>35</v>
+      </c>
       <c r="U35" s="2">
         <v>43044</v>
       </c>
-      <c r="V35" s="1"/>
+      <c r="V35" s="1">
+        <v>32</v>
+      </c>
       <c r="W35" s="2">
         <v>43061</v>
       </c>
-      <c r="X35" s="6"/>
+      <c r="X35" s="6">
+        <v>1</v>
+      </c>
       <c r="Y35" s="13"/>
       <c r="Z35" s="14"/>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>42892</v>
       </c>
@@ -3344,43 +3479,61 @@
       <c r="G36" s="2">
         <v>42939</v>
       </c>
-      <c r="H36" s="1"/>
+      <c r="H36" s="1">
+        <v>22</v>
+      </c>
       <c r="I36" s="2">
         <v>42953</v>
       </c>
-      <c r="J36" s="1"/>
+      <c r="J36" s="1">
+        <v>13</v>
+      </c>
       <c r="K36" s="2">
         <v>42970</v>
       </c>
-      <c r="L36" s="1"/>
+      <c r="L36" s="1">
+        <v>3</v>
+      </c>
       <c r="M36" s="2">
         <v>42984</v>
       </c>
-      <c r="N36" s="1"/>
+      <c r="N36" s="1">
+        <v>3</v>
+      </c>
       <c r="O36" s="2">
         <v>43001</v>
       </c>
-      <c r="P36" s="1"/>
+      <c r="P36" s="1">
+        <v>14</v>
+      </c>
       <c r="Q36" s="2">
         <v>43014</v>
       </c>
-      <c r="R36" s="1"/>
+      <c r="R36" s="1">
+        <v>3</v>
+      </c>
       <c r="S36" s="2">
         <v>43031</v>
       </c>
-      <c r="T36" s="1"/>
+      <c r="T36" s="1">
+        <v>5</v>
+      </c>
       <c r="U36" s="2">
         <v>43045</v>
       </c>
-      <c r="V36" s="1"/>
+      <c r="V36" s="1">
+        <v>3</v>
+      </c>
       <c r="W36" s="2">
         <v>43062</v>
       </c>
-      <c r="X36" s="6"/>
+      <c r="X36" s="6">
+        <v>1</v>
+      </c>
       <c r="Y36" s="13"/>
       <c r="Z36" s="14"/>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>42893</v>
       </c>
@@ -3402,43 +3555,61 @@
       <c r="G37" s="2">
         <v>42940</v>
       </c>
-      <c r="H37" s="1"/>
+      <c r="H37" s="1">
+        <v>2</v>
+      </c>
       <c r="I37" s="2">
         <v>42954</v>
       </c>
-      <c r="J37" s="1"/>
+      <c r="J37" s="1">
+        <v>1</v>
+      </c>
       <c r="K37" s="2">
         <v>42971</v>
       </c>
-      <c r="L37" s="1"/>
+      <c r="L37" s="1">
+        <v>1</v>
+      </c>
       <c r="M37" s="2">
         <v>42985</v>
       </c>
-      <c r="N37" s="1"/>
+      <c r="N37" s="1">
+        <v>5</v>
+      </c>
       <c r="O37" s="2">
         <v>43002</v>
       </c>
-      <c r="P37" s="1"/>
+      <c r="P37" s="1">
+        <v>14</v>
+      </c>
       <c r="Q37" s="2">
         <v>43015</v>
       </c>
-      <c r="R37" s="1"/>
+      <c r="R37" s="1">
+        <v>1</v>
+      </c>
       <c r="S37" s="2">
         <v>43032</v>
       </c>
-      <c r="T37" s="1"/>
+      <c r="T37" s="1">
+        <v>1</v>
+      </c>
       <c r="U37" s="2">
         <v>43046</v>
       </c>
-      <c r="V37" s="1"/>
+      <c r="V37" s="1">
+        <v>3</v>
+      </c>
       <c r="W37" s="2">
         <v>43063</v>
       </c>
-      <c r="X37" s="6"/>
+      <c r="X37" s="6">
+        <v>1</v>
+      </c>
       <c r="Y37" s="13"/>
       <c r="Z37" s="14"/>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>42894</v>
       </c>
@@ -3460,43 +3631,61 @@
       <c r="G38" s="2">
         <v>42941</v>
       </c>
-      <c r="H38" s="1"/>
+      <c r="H38" s="1">
+        <v>1</v>
+      </c>
       <c r="I38" s="2">
         <v>42955</v>
       </c>
-      <c r="J38" s="1"/>
+      <c r="J38" s="1">
+        <v>3</v>
+      </c>
       <c r="K38" s="2">
         <v>42972</v>
       </c>
-      <c r="L38" s="1"/>
+      <c r="L38" s="1">
+        <v>1</v>
+      </c>
       <c r="M38" s="2">
         <v>42986</v>
       </c>
-      <c r="N38" s="1"/>
+      <c r="N38" s="1">
+        <v>3</v>
+      </c>
       <c r="O38" s="2">
         <v>43003</v>
       </c>
-      <c r="P38" s="1"/>
+      <c r="P38" s="1">
+        <v>2</v>
+      </c>
       <c r="Q38" s="2">
         <v>43016</v>
       </c>
-      <c r="R38" s="1"/>
+      <c r="R38" s="1">
+        <v>1</v>
+      </c>
       <c r="S38" s="2">
         <v>43033</v>
       </c>
-      <c r="T38" s="1"/>
+      <c r="T38" s="1">
+        <v>1</v>
+      </c>
       <c r="U38" s="2">
         <v>43047</v>
       </c>
-      <c r="V38" s="1"/>
+      <c r="V38" s="1">
+        <v>1</v>
+      </c>
       <c r="W38" s="2">
         <v>43064</v>
       </c>
-      <c r="X38" s="6"/>
+      <c r="X38" s="6">
+        <v>17</v>
+      </c>
       <c r="Y38" s="13"/>
       <c r="Z38" s="14"/>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>42895</v>
       </c>
@@ -3518,7 +3707,9 @@
       <c r="G39" s="2">
         <v>42942</v>
       </c>
-      <c r="H39" s="1"/>
+      <c r="H39" s="1">
+        <v>1</v>
+      </c>
       <c r="I39" s="2">
         <v>42956</v>
       </c>
@@ -3526,35 +3717,49 @@
       <c r="K39" s="2">
         <v>42973</v>
       </c>
-      <c r="L39" s="1"/>
+      <c r="L39" s="1">
+        <v>1</v>
+      </c>
       <c r="M39" s="2">
         <v>42987</v>
       </c>
-      <c r="N39" s="1"/>
+      <c r="N39" s="1">
+        <v>15</v>
+      </c>
       <c r="O39" s="2">
         <v>43004</v>
       </c>
-      <c r="P39" s="1"/>
+      <c r="P39" s="1">
+        <v>1</v>
+      </c>
       <c r="Q39" s="2">
         <v>43017</v>
       </c>
-      <c r="R39" s="1"/>
+      <c r="R39" s="1">
+        <v>2</v>
+      </c>
       <c r="S39" s="2">
         <v>43034</v>
       </c>
-      <c r="T39" s="1"/>
+      <c r="T39" s="1">
+        <v>1</v>
+      </c>
       <c r="U39" s="2">
         <v>43048</v>
       </c>
-      <c r="V39" s="1"/>
+      <c r="V39" s="1">
+        <v>1</v>
+      </c>
       <c r="W39" s="2">
         <v>43065</v>
       </c>
-      <c r="X39" s="6"/>
+      <c r="X39" s="6">
+        <v>17</v>
+      </c>
       <c r="Y39" s="13"/>
       <c r="Z39" s="14"/>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>42896</v>
       </c>
@@ -3576,7 +3781,9 @@
       <c r="G40" s="2">
         <v>42943</v>
       </c>
-      <c r="H40" s="1"/>
+      <c r="H40" s="1">
+        <v>1</v>
+      </c>
       <c r="I40" s="2">
         <v>42957</v>
       </c>
@@ -3584,35 +3791,49 @@
       <c r="K40" s="2">
         <v>42974</v>
       </c>
-      <c r="L40" s="1"/>
+      <c r="L40" s="1">
+        <v>14</v>
+      </c>
       <c r="M40" s="2">
         <v>42988</v>
       </c>
-      <c r="N40" s="1"/>
+      <c r="N40" s="1">
+        <v>15</v>
+      </c>
       <c r="O40" s="2">
         <v>43005</v>
       </c>
-      <c r="P40" s="1"/>
+      <c r="P40" s="1">
+        <v>1</v>
+      </c>
       <c r="Q40" s="2">
         <v>43018</v>
       </c>
-      <c r="R40" s="1"/>
+      <c r="R40" s="1">
+        <v>2</v>
+      </c>
       <c r="S40" s="2">
         <v>43035</v>
       </c>
-      <c r="T40" s="1"/>
+      <c r="T40" s="1">
+        <v>1</v>
+      </c>
       <c r="U40" s="2">
         <v>43049</v>
       </c>
-      <c r="V40" s="1"/>
+      <c r="V40" s="1">
+        <v>1</v>
+      </c>
       <c r="W40" s="2">
         <v>43066</v>
       </c>
-      <c r="X40" s="6"/>
+      <c r="X40" s="6">
+        <v>1</v>
+      </c>
       <c r="Y40" s="13"/>
       <c r="Z40" s="14"/>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>42897</v>
       </c>
@@ -3634,7 +3855,9 @@
       <c r="G41" s="2">
         <v>42944</v>
       </c>
-      <c r="H41" s="1"/>
+      <c r="H41" s="1">
+        <v>1</v>
+      </c>
       <c r="I41" s="2">
         <v>42958</v>
       </c>
@@ -3642,35 +3865,49 @@
       <c r="K41" s="2">
         <v>42975</v>
       </c>
-      <c r="L41" s="1"/>
+      <c r="L41" s="1">
+        <v>1</v>
+      </c>
       <c r="M41" s="2">
         <v>42989</v>
       </c>
-      <c r="N41" s="1"/>
+      <c r="N41" s="1">
+        <v>1</v>
+      </c>
       <c r="O41" s="2">
         <v>43006</v>
       </c>
-      <c r="P41" s="1"/>
+      <c r="P41" s="1">
+        <v>1</v>
+      </c>
       <c r="Q41" s="2">
         <v>43019</v>
       </c>
-      <c r="R41" s="1"/>
+      <c r="R41" s="1">
+        <v>1</v>
+      </c>
       <c r="S41" s="2">
         <v>43036</v>
       </c>
-      <c r="T41" s="1"/>
+      <c r="T41" s="1">
+        <v>1</v>
+      </c>
       <c r="U41" s="2">
         <v>43050</v>
       </c>
-      <c r="V41" s="1"/>
+      <c r="V41" s="1">
+        <v>10</v>
+      </c>
       <c r="W41" s="2">
         <v>43067</v>
       </c>
-      <c r="X41" s="6"/>
+      <c r="X41" s="6">
+        <v>2</v>
+      </c>
       <c r="Y41" s="13"/>
       <c r="Z41" s="14"/>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>42898</v>
       </c>
@@ -3692,7 +3929,9 @@
       <c r="G42" s="2">
         <v>42945</v>
       </c>
-      <c r="H42" s="1"/>
+      <c r="H42" s="1">
+        <v>15</v>
+      </c>
       <c r="I42" s="2">
         <v>42959</v>
       </c>
@@ -3700,35 +3939,49 @@
       <c r="K42" s="2">
         <v>42976</v>
       </c>
-      <c r="L42" s="1"/>
+      <c r="L42" s="1">
+        <v>1</v>
+      </c>
       <c r="M42" s="2">
         <v>42990</v>
       </c>
-      <c r="N42" s="1"/>
+      <c r="N42" s="1">
+        <v>3</v>
+      </c>
       <c r="O42" s="2">
         <v>43007</v>
       </c>
-      <c r="P42" s="1"/>
+      <c r="P42" s="1">
+        <v>1</v>
+      </c>
       <c r="Q42" s="2">
         <v>43020</v>
       </c>
-      <c r="R42" s="1"/>
+      <c r="R42" s="1">
+        <v>1</v>
+      </c>
       <c r="S42" s="2">
         <v>43037</v>
       </c>
-      <c r="T42" s="1"/>
+      <c r="T42" s="1">
+        <v>1</v>
+      </c>
       <c r="U42" s="2">
         <v>43051</v>
       </c>
-      <c r="V42" s="1"/>
+      <c r="V42" s="1">
+        <v>30</v>
+      </c>
       <c r="W42" s="2">
         <v>43068</v>
       </c>
-      <c r="X42" s="6"/>
+      <c r="X42" s="6">
+        <v>2</v>
+      </c>
       <c r="Y42" s="13"/>
       <c r="Z42" s="14"/>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>42899</v>
       </c>
@@ -3750,7 +4003,9 @@
       <c r="G43" s="2">
         <v>42946</v>
       </c>
-      <c r="H43" s="1"/>
+      <c r="H43" s="1">
+        <v>10</v>
+      </c>
       <c r="I43" s="2">
         <v>42960</v>
       </c>
@@ -3758,35 +4013,49 @@
       <c r="K43" s="2">
         <v>42977</v>
       </c>
-      <c r="L43" s="1"/>
+      <c r="L43" s="1">
+        <v>2</v>
+      </c>
       <c r="M43" s="2">
         <v>42991</v>
       </c>
-      <c r="N43" s="1"/>
+      <c r="N43" s="1">
+        <v>3</v>
+      </c>
       <c r="O43" s="2">
         <v>43008</v>
       </c>
-      <c r="P43" s="1"/>
+      <c r="P43" s="1">
+        <v>1</v>
+      </c>
       <c r="Q43" s="2">
         <v>43021</v>
       </c>
-      <c r="R43" s="1"/>
+      <c r="R43" s="1">
+        <v>1</v>
+      </c>
       <c r="S43" s="2">
         <v>43038</v>
       </c>
-      <c r="T43" s="1"/>
+      <c r="T43" s="1">
+        <v>14</v>
+      </c>
       <c r="U43" s="2">
         <v>43052</v>
       </c>
-      <c r="V43" s="1"/>
+      <c r="V43" s="1">
+        <v>6</v>
+      </c>
       <c r="W43" s="2">
         <v>43069</v>
       </c>
-      <c r="X43" s="6"/>
+      <c r="X43" s="6">
+        <v>2</v>
+      </c>
       <c r="Y43" s="13"/>
       <c r="Z43" s="14"/>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>42900</v>
       </c>
@@ -3804,39 +4073,53 @@
       <c r="G44" s="2">
         <v>42947</v>
       </c>
-      <c r="H44" s="1"/>
+      <c r="H44" s="1">
+        <v>1</v>
+      </c>
       <c r="I44" s="2">
         <v>42961</v>
       </c>
-      <c r="J44" s="6"/>
+      <c r="J44" s="6">
+        <v>10</v>
+      </c>
       <c r="K44" s="2">
         <v>42978</v>
       </c>
-      <c r="L44" s="1"/>
+      <c r="L44" s="1">
+        <v>2</v>
+      </c>
       <c r="M44" s="2">
         <v>42992</v>
       </c>
-      <c r="N44" s="6"/>
+      <c r="N44" s="6">
+        <v>9</v>
+      </c>
       <c r="O44" s="11"/>
       <c r="P44" s="12"/>
       <c r="Q44" s="2">
         <v>43022</v>
       </c>
-      <c r="R44" s="6"/>
+      <c r="R44" s="6">
+        <v>1</v>
+      </c>
       <c r="S44" s="2">
         <v>43039</v>
       </c>
-      <c r="T44" s="1"/>
+      <c r="T44" s="1">
+        <v>3</v>
+      </c>
       <c r="U44" s="2">
         <v>43053</v>
       </c>
-      <c r="V44" s="6"/>
+      <c r="V44" s="6">
+        <v>2</v>
+      </c>
       <c r="W44" s="11"/>
       <c r="X44" s="36"/>
       <c r="Y44" s="13"/>
       <c r="Z44" s="14"/>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>42901</v>
       </c>
@@ -3856,31 +4139,39 @@
       <c r="I45" s="2">
         <v>42962</v>
       </c>
-      <c r="J45" s="6"/>
+      <c r="J45" s="6">
+        <v>20</v>
+      </c>
       <c r="K45" s="13"/>
       <c r="L45" s="14"/>
       <c r="M45" s="2">
         <v>42993</v>
       </c>
-      <c r="N45" s="6"/>
+      <c r="N45" s="6">
+        <v>7</v>
+      </c>
       <c r="O45" s="13"/>
       <c r="P45" s="14"/>
       <c r="Q45" s="2">
         <v>43023</v>
       </c>
-      <c r="R45" s="6"/>
+      <c r="R45" s="6">
+        <v>1</v>
+      </c>
       <c r="S45" s="13"/>
       <c r="T45" s="14"/>
       <c r="U45" s="2">
         <v>43054</v>
       </c>
-      <c r="V45" s="6"/>
+      <c r="V45" s="6">
+        <v>2</v>
+      </c>
       <c r="W45" s="13"/>
       <c r="X45" s="35"/>
       <c r="Y45" s="13"/>
       <c r="Z45" s="14"/>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>42902</v>
       </c>
@@ -3906,25 +4197,31 @@
       <c r="M46" s="2">
         <v>42994</v>
       </c>
-      <c r="N46" s="6"/>
+      <c r="N46" s="6">
+        <v>15</v>
+      </c>
       <c r="O46" s="13"/>
       <c r="P46" s="14"/>
       <c r="Q46" s="2">
         <v>43024</v>
       </c>
-      <c r="R46" s="6"/>
+      <c r="R46" s="6">
+        <v>1</v>
+      </c>
       <c r="S46" s="13"/>
       <c r="T46" s="14"/>
       <c r="U46" s="2">
         <v>43055</v>
       </c>
-      <c r="V46" s="6"/>
+      <c r="V46" s="6">
+        <v>10</v>
+      </c>
       <c r="W46" s="13"/>
       <c r="X46" s="35"/>
       <c r="Y46" s="13"/>
       <c r="Z46" s="14"/>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>42903</v>
       </c>
@@ -3944,31 +4241,39 @@
       <c r="I47" s="2">
         <v>42964</v>
       </c>
-      <c r="J47" s="6"/>
+      <c r="J47" s="6">
+        <v>22</v>
+      </c>
       <c r="K47" s="15"/>
       <c r="L47" s="16"/>
       <c r="M47" s="2">
         <v>42995</v>
       </c>
-      <c r="N47" s="6"/>
+      <c r="N47" s="6">
+        <v>15</v>
+      </c>
       <c r="O47" s="15"/>
       <c r="P47" s="16"/>
       <c r="Q47" s="2">
         <v>43025</v>
       </c>
-      <c r="R47" s="6"/>
+      <c r="R47" s="6">
+        <v>1</v>
+      </c>
       <c r="S47" s="15"/>
       <c r="T47" s="16"/>
       <c r="U47" s="2">
         <v>43056</v>
       </c>
-      <c r="V47" s="6"/>
+      <c r="V47" s="6">
+        <v>5</v>
+      </c>
       <c r="W47" s="15"/>
       <c r="X47" s="37"/>
       <c r="Y47" s="15"/>
       <c r="Z47" s="16"/>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>0</v>
       </c>
@@ -3995,73 +4300,73 @@
       </c>
       <c r="H48" s="4">
         <f>SUM(H31:H47)</f>
-        <v>6</v>
+        <v>67</v>
       </c>
       <c r="I48" s="4" t="s">
         <v>0</v>
       </c>
       <c r="J48" s="4">
         <f t="shared" ref="J48" si="22">SUM(J31:J47)</f>
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="K48" s="4" t="s">
         <v>0</v>
       </c>
       <c r="L48" s="4">
         <f t="shared" ref="L48" si="23">SUM(L31:L47)</f>
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="M48" s="4" t="s">
         <v>0</v>
       </c>
       <c r="N48" s="4">
         <f t="shared" ref="N48" si="24">SUM(N31:N47)</f>
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="O48" s="4" t="s">
         <v>0</v>
       </c>
       <c r="P48" s="4">
         <f t="shared" ref="P48" si="25">SUM(P31:P47)</f>
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="Q48" s="4" t="s">
         <v>0</v>
       </c>
       <c r="R48" s="4">
         <f t="shared" ref="R48" si="26">SUM(R31:R47)</f>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="S48" s="4" t="s">
         <v>0</v>
       </c>
       <c r="T48" s="4">
         <f t="shared" ref="T48" si="27">SUM(T31:T47)</f>
-        <v>0</v>
+        <v>145</v>
       </c>
       <c r="U48" s="4" t="s">
         <v>0</v>
       </c>
       <c r="V48" s="4">
         <f t="shared" ref="V48" si="28">SUM(V31:V47)</f>
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="W48" s="4" t="s">
         <v>0</v>
       </c>
       <c r="X48" s="4">
         <f t="shared" ref="X48" si="29">SUM(X31:X47)</f>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="Y48" s="4" t="s">
         <v>0</v>
       </c>
       <c r="Z48" s="4">
         <f t="shared" ref="Z48" si="30">SUM(Z31:Z47)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>1</v>
       </c>
@@ -4088,73 +4393,73 @@
       </c>
       <c r="H49" s="21">
         <f>AVERAGE(H31:H47)</f>
-        <v>2</v>
+        <v>4.7857142857142856</v>
       </c>
       <c r="I49" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="J49" s="21" t="e">
+      <c r="J49" s="21">
         <f t="shared" ref="J49" si="31">AVERAGE(J31:J47)</f>
-        <v>#DIV/0!</v>
+        <v>7.2727272727272725</v>
       </c>
       <c r="K49" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="L49" s="21" t="e">
+      <c r="L49" s="21">
         <f t="shared" ref="L49" si="32">AVERAGE(L31:L47)</f>
-        <v>#DIV/0!</v>
+        <v>2.5</v>
       </c>
       <c r="M49" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="N49" s="21" t="e">
+      <c r="N49" s="21">
         <f t="shared" ref="N49" si="33">AVERAGE(N31:N47)</f>
-        <v>#DIV/0!</v>
+        <v>7.4117647058823533</v>
       </c>
       <c r="O49" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="P49" s="21" t="e">
+      <c r="P49" s="21">
         <f t="shared" ref="P49" si="34">AVERAGE(P31:P47)</f>
-        <v>#DIV/0!</v>
+        <v>3.3076923076923075</v>
       </c>
       <c r="Q49" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="R49" s="21" t="e">
+      <c r="R49" s="21">
         <f t="shared" ref="R49" si="35">AVERAGE(R31:R47)</f>
-        <v>#DIV/0!</v>
+        <v>3.9411764705882355</v>
       </c>
       <c r="S49" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="T49" s="21" t="e">
+      <c r="T49" s="21">
         <f t="shared" ref="T49" si="36">AVERAGE(T31:T47)</f>
-        <v>#DIV/0!</v>
+        <v>10.357142857142858</v>
       </c>
       <c r="U49" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="V49" s="21" t="e">
+      <c r="V49" s="21">
         <f t="shared" ref="V49" si="37">AVERAGE(V31:V47)</f>
-        <v>#DIV/0!</v>
+        <v>7.3529411764705879</v>
       </c>
       <c r="W49" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="X49" s="21" t="e">
+      <c r="X49" s="21">
         <f t="shared" ref="X49:Z49" si="38">AVERAGE(X31:X47)</f>
-        <v>#DIV/0!</v>
+        <v>5.2307692307692308</v>
       </c>
       <c r="Y49" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="Z49" s="21" t="e">
+      <c r="Z49" s="21">
         <f t="shared" si="38"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
       <c r="C50" s="22" t="s">
         <v>5</v>
       </c>
@@ -4167,53 +4472,53 @@
       </c>
       <c r="H50" s="22">
         <f>F48+H48</f>
-        <v>98</v>
+        <v>159</v>
       </c>
       <c r="K50" s="22" t="s">
         <v>5</v>
       </c>
       <c r="L50" s="22">
         <f t="shared" ref="L50" si="39">J48+L48</f>
-        <v>0</v>
+        <v>115</v>
       </c>
       <c r="O50" s="22" t="s">
         <v>5</v>
       </c>
       <c r="P50" s="22">
         <f t="shared" ref="P50" si="40">N48+P48</f>
-        <v>0</v>
+        <v>169</v>
       </c>
       <c r="S50" s="22" t="s">
         <v>5</v>
       </c>
       <c r="T50" s="22">
         <f t="shared" ref="T50" si="41">R48+T48</f>
-        <v>0</v>
+        <v>212</v>
       </c>
       <c r="W50" s="22" t="s">
         <v>5</v>
       </c>
       <c r="X50" s="22">
         <f t="shared" ref="X50" si="42">V48+X48</f>
-        <v>0</v>
+        <v>193</v>
       </c>
       <c r="Y50" s="22" t="s">
         <v>5</v>
       </c>
       <c r="Z50" s="22">
-        <f t="shared" ref="Z50" si="43">X48+Z48</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="58" spans="1:26" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+        <f>Z48</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="57" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="58" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F58" s="38" t="s">
         <v>25</v>
       </c>
       <c r="G58" s="39"/>
       <c r="H58" s="24">
         <f>SUM(D21,H21,L21,P21,T21,X21,D50,H50,L50,P50,T50,X50,Z50)*1000</f>
-        <v>1317000</v>
+        <v>2078000</v>
       </c>
       <c r="I58" s="25" t="s">
         <v>6</v>
@@ -4226,17 +4531,17 @@
       </c>
       <c r="L58" s="28">
         <f>J58-H58</f>
-        <v>783000</v>
-      </c>
-    </row>
-    <row r="59" spans="1:26" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F59" s="38" t="s">
         <v>1</v>
       </c>
       <c r="G59" s="39"/>
       <c r="H59" s="20">
         <f>AVERAGE(B14:B18,D1:D15,F2:F18,H2:H15,J2:J18,L2:L12,N2:N18,P2:P15,R2:R18,T2:T14,V2:V18,X2:X15,B31:B47,D31:D43,F31:F47,H31:H44,J31:J47,L31:L44,N31:N47,P31:P43,R31:R47,T31:T44,V31:V47,X31:X43,Z31:Z33)</f>
-        <v>5.9863636363636363</v>
+        <v>5.9712643678160919</v>
       </c>
     </row>
   </sheetData>
@@ -4270,7 +4575,7 @@
       <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4281,19 +4586,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="5.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.77734375" customWidth="1"/>
+    <col min="2" max="2" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="29" t="s">
         <v>8</v>
       </c>
@@ -4307,7 +4612,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="30">
         <v>1</v>
       </c>
@@ -4321,7 +4626,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="30">
         <v>2</v>
       </c>
@@ -4335,7 +4640,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="30">
         <v>3</v>
       </c>
@@ -4349,7 +4654,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="30">
         <v>4</v>
       </c>
@@ -4363,7 +4668,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="30">
         <v>5</v>
       </c>
@@ -4377,7 +4682,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="30">
         <v>6</v>
       </c>
@@ -4391,7 +4696,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="30">
         <v>7</v>
       </c>
@@ -4405,7 +4710,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="30">
         <v>8</v>
       </c>
@@ -4417,10 +4722,10 @@
       </c>
       <c r="D9" s="30">
         <f>'Dainandin Nond'!H50</f>
-        <v>98</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="30">
         <v>9</v>
       </c>
@@ -4432,10 +4737,10 @@
       </c>
       <c r="D10" s="30">
         <f>'Dainandin Nond'!L50</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="30">
         <v>10</v>
       </c>
@@ -4447,10 +4752,10 @@
       </c>
       <c r="D11" s="30">
         <f>'Dainandin Nond'!P50</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="30">
         <v>11</v>
       </c>
@@ -4462,10 +4767,10 @@
       </c>
       <c r="D12" s="30">
         <f>'Dainandin Nond'!T50</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="30">
         <v>12</v>
       </c>
@@ -4477,10 +4782,10 @@
       </c>
       <c r="D13" s="30">
         <f>'Dainandin Nond'!X50</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="30">
         <v>13</v>
       </c>
@@ -4492,10 +4797,10 @@
       </c>
       <c r="D14" s="30">
         <f>'Dainandin Nond'!Z50</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="30">
         <v>14</v>
       </c>
@@ -4509,7 +4814,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="30">
         <v>15</v>
       </c>
@@ -4521,7 +4826,7 @@
       </c>
       <c r="D16" s="30"/>
     </row>
-    <row r="17" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="30"/>
       <c r="B17" s="30"/>
       <c r="C17" s="32" t="s">
@@ -4529,10 +4834,10 @@
       </c>
       <c r="D17" s="33">
         <f>SUM(D2:D16)</f>
-        <v>1447</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+        <v>2208</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="30"/>
       <c r="B18" s="30"/>
       <c r="C18" s="32" t="s">
@@ -4540,7 +4845,7 @@
       </c>
       <c r="D18" s="34">
         <f>AVERAGE(D2:D16)</f>
-        <v>103.35714285714286</v>
+        <v>157.71428571428572</v>
       </c>
     </row>
   </sheetData>
